--- a/biology/Médecine/Érythrasma/Érythrasma.xlsx
+++ b/biology/Médecine/Érythrasma/Érythrasma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rythrasma</t>
+          <t>Érythrasma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'érythrasma est une infection cutanée fréquente à Corynebacterium minutissimum (bactérie saprophyte). L'infection est localisée dans les plis (creux axillaire, creux inguinal, pli inter-fessier…) et consiste en une macule bien délimitée, de couleur rouge-brun avec de fines squames.
-Les facteurs favorisants sont le diabète, l'obésité, une transpiration excessive[1].
-Le diagnostic est fait à l'examen microscopique direct, ou à la lumière de Wood (fluorescence rouge)[2]. Le diagnostic différentiel est à faire avec la dermatophytose inguino-crurale (anciennement dénommé eczéma marginé de Hébra) grâce à une lampe de Wood (fluorescence rougeâtre saumonée)[1],[3].
-Le traitement consiste en des soins d'hygiène quotidiens avec un savon antiseptique contenant des trichlorcarbanilides et une antibiothérapie locale, off-label : Fucidin, Acnéryne gel, Erythromycine, pendant deux semaines, parfois associée aux crèmes imidazolées[1],[2],[3].
+Les facteurs favorisants sont le diabète, l'obésité, une transpiration excessive.
+Le diagnostic est fait à l'examen microscopique direct, ou à la lumière de Wood (fluorescence rouge). Le diagnostic différentiel est à faire avec la dermatophytose inguino-crurale (anciennement dénommé eczéma marginé de Hébra) grâce à une lampe de Wood (fluorescence rougeâtre saumonée),.
+Le traitement consiste en des soins d'hygiène quotidiens avec un savon antiseptique contenant des trichlorcarbanilides et une antibiothérapie locale, off-label : Fucidin, Acnéryne gel, Erythromycine, pendant deux semaines, parfois associée aux crèmes imidazolées.
 </t>
         </is>
       </c>
